--- a/data/trans_camb/P10_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_1-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 12,98</t>
+          <t>-19,01; 18,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 6,81</t>
+          <t>-9,82; 10,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 6,73</t>
+          <t>-10,56; 10,62</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>-0,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>-0,44%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 16,3</t>
+          <t>-21,56; 24,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 7,58</t>
+          <t>-10,42; 12,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 7,72</t>
+          <t>-11,0; 12,83</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 5,08</t>
+          <t>-8,79; 11,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 5,29</t>
+          <t>-11,46; 9,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 3,24</t>
+          <t>-6,94; 7,33</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,36%</t>
+          <t>0,33%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 5,72</t>
+          <t>-8,93; 13,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 5,89</t>
+          <t>-12,24; 10,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 3,52</t>
+          <t>-7,2; 8,1</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-1,25</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 8,25</t>
+          <t>-8,67; 9,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 4,78</t>
+          <t>-9,11; 5,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 4,46</t>
+          <t>-6,88; 4,29</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,14%</t>
+          <t>-2,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>-1,35%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 9,3</t>
+          <t>-9,08; 10,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 5,29</t>
+          <t>-9,5; 5,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 4,88</t>
+          <t>-7,28; 4,71</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,21</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 5,87</t>
+          <t>-7,91; 8,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 8,33</t>
+          <t>-9,18; 9,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 5,28</t>
+          <t>-6,9; 5,43</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,93%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>-0,23%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 6,65</t>
+          <t>-8,33; 9,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 10,26</t>
+          <t>-10,13; 11,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 6,16</t>
+          <t>-7,61; 6,25</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-1,44</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 11,79</t>
+          <t>-22,35; 15,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 7,97</t>
+          <t>-16,09; 12,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 6,42</t>
+          <t>-14,19; 9,41</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>-1,63%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>-1,84%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>-1,72%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 15,28</t>
+          <t>-24,36; 19,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 9,87</t>
+          <t>-17,71; 15,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 7,85</t>
+          <t>-16,34; 11,98</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-1,61</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 14,32</t>
+          <t>-19,32; 18,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 12,03</t>
+          <t>-21,27; 15,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 9,2</t>
+          <t>-14,84; 12,14</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,35%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,17%</t>
+          <t>-3,56%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>-2,08%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 21,56</t>
+          <t>-22,72; 27,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 19,08</t>
+          <t>-25,55; 23,46</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 13,84</t>
+          <t>-17,77; 17,66</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,74</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 4,16</t>
+          <t>-5,83; 5,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 3,21</t>
+          <t>-6,02; 3,24</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,33</t>
+          <t>-3,95; 3,01</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>-0,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>-1,56%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>-0,84%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 4,89</t>
+          <t>-6,41; 6,32</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,75</t>
+          <t>-6,69; 3,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 2,71</t>
+          <t>-4,43; 3,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_1-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.05261730486489924</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2380044415437932</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1017982559206931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-19,01; 18,27</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,82; 10,67</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,56; 10,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-17.8972080091152</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.938861573496517</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.839657892089152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,43%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,04%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,44%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.35031953997589</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.11708558687109</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.21157622181969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-21,56; 24,58</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,42; 12,32</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,0; 12,83</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.0006314489041366118</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.002549263687022372</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.001142264549316927</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1989097179158832</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.09298434662685634</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1037542125326563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,79; 11,88</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,46; 9,32</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 7,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.2728823321317751</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.1274230038380775</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1348759598036235</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,31%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>2.526088611264776</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.7601661113094793</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.025973126811031</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,93; 13,91</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,24; 10,95</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; 8,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.334443012794505</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.54730062619799</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.878678135597296</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,04</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,25</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.53093424320336</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.872561255235324</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.782151802234003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; 9,03</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,11; 5,24</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,88; 4,29</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.02688605310500215</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.008302605734231937</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.01105907281210665</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,04%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,19%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,35%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.06772979698261836</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1126554532950368</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.061042381749996</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-9,08; 10,21</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; 5,81</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,28; 4,71</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1445236973972961</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1161937925891067</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.08890128500384417</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.636469370477899</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.287074639274632</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.5411673612110368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-7,91; 8,22</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-9,18; 9,35</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,9; 5,43</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-7.891148902860564</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.585281200870959</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.134623743047426</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0,06%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,38%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,23%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>9.90642307972378</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.349596763267776</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.765968733317197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-8,33; 9,58</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-10,13; 11,16</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-7,61; 6,25</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.006829459458393423</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.01385237792361588</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.005817489336116066</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,37</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,54</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.08282664203339243</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.08035922263561097</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.06378603399816085</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-22,35; 15,01</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-16,09; 12,28</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-14,19; 9,41</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.115969956126296</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.0647309017594867</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.05274728010758488</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-1,63%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-1,84%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-1,72%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.08698264332855921</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.298571851374263</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1804523647455314</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-24,36; 19,49</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-17,71; 15,85</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-16,34; 11,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.802836242134525</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-8.465771836329496</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-6.59553415444117</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-2,71</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,61</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.345070528460006</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>9.554968843929968</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.921331676091171</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-19,32; 18,81</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-21,27; 15,18</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-14,84; 12,14</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.0009420511092193952</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.003417699998932865</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.002012808980335994</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-0,19%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-3,56%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-2,08%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.08374192443096828</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.09444776581534683</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.06977824074354466</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-22,72; 27,69</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-25,55; 23,46</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-17,77; 17,66</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.09387483989800323</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1162112690580731</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.06734908769732836</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-0,0</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-1,38</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-2.651759714065383</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-1.549689172168978</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-2.183557494780952</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-5,83; 5,46</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-6,02; 3,24</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-3,95; 3,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-23.72849948625382</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-16.12068382362396</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-15.80632037271583</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-0,0%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-1,56%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-0,84%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>14.19653355283608</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>12.09628463175435</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>9.08748793068189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-6,41; 6,32</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-6,69; 3,77</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 3,48</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.03150216448261382</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.0184787706367325</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.02598141123461701</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.2658550575832985</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.1784159304291925</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.1828360392386155</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.1866890538055887</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.1599056471969881</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.1143846684849738</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>1.068531677785478</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-3.519534614956077</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-1.354887338037047</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-18.51985525358667</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-22.44227695342956</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-14.40857131493837</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>19.00828973226919</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>14.49473945457098</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>12.4093741795502</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.01368883059026764</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.04618392673785569</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.01758360730587601</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.2162398620614167</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.2725220952000094</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.1712443229574283</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.286691734058468</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.2144434089969147</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.1761641283552134</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.4383069660331862</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-0.8168395211130219</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-0.2297074110343855</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-5.36905568082188</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-5.295388561566752</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-3.416207382818564</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>5.684416127569361</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>3.733791859476256</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>3.398301495870974</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.004949579682819787</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.00923987203847113</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.002596331313247787</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.05937004648824368</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.05855348734056155</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.0380124053523624</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.0660193194287384</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.04350995573559339</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.03907278840762062</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
